--- a/pred_ohlcv/54_21/2020-01-25 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DVP ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>4543225.198333334</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4480471.069633333</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4476961.069633333</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4541147.771133333</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4541017.326733332</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4537630.051333332</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4514099.145533333</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4514249.145533333</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4511643.589933333</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4486434.266833333</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4486434.266833333</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4498034.266833333</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4498308.711233334</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4496298.822533334</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4496154.378133333</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4496414.378133333</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4497258.822533334</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4496984.378133333</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4496534.378133333</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4496389.933733333</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4499119.933733333</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4500119.933733333</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4497561.586133333</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4496021.586133333</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4495877.141733333</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4530086.741733332</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4530077.141733333</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4529797.141733333</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4528817.141733333</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4531747.141733333</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4531743.647233333</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4530903.647233333</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4530168.091633333</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4529856.980433334</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4550466.980433334</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4550326.980433334</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4550606.980433334</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4540426.980433334</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4540286.980433334</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4552357.655433333</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>4552077.655433333</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4563417.655433333</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>4551819.853233334</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>4528372.439233333</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4548112.439233333</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4535412.439233333</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4534282.439233333</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4534146.163133333</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4155535.539033332</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4155675.539033332</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3486530.900033332</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2177066.236133332</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1869024.349124894</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1743885.382124894</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1743043.544924894</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1725988.324124894</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1702247.511624894</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1487379.455224894</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2672459.877224894</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2672159.877224894</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2677929.207124894</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3284620.636624894</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3284820.636624894</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3429016.960124894</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3429016.960124894</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3429021.960124894</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3439531.922624893</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3419529.789724893</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3419529.789724893</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3492819.575224893</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3492969.575224893</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3711961.287624893</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3711811.287624893</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3711661.287624893</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3170529.204724893</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3169659.204724893</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3169809.204724893</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3146409.204724893</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3140021.959224893</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3138371.959224893</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3105355.188524893</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3102355.188524893</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>2932595.726824893</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>2893042.726824893</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2892882.726824893</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2893042.726824893</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2814404.311724893</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2847785.611724893</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2844460.363824893</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2844460.363824893</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2854460.363824893</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2961770.442724893</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2961620.442724893</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2961470.442724893</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2975420.442724893</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2975323.239024893</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2858689.473524893</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2862051.980624893</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2862051.980624893</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2870616.939724893</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2870758.939724893</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2846296.193024893</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2849196.193024893</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2849196.193024893</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1569980.361724893</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1691777.976724893</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1826861.122324893</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1843549.537224893</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1724820.155424893</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1781501.490724893</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1735724.987024893</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1797013.092124893</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1797013.092124893</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4264166.728033334</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4264016.728033334</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4360557.235933334</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4361157.235933334</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4360707.235933334</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4540109.016533335</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4492964.572133334</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4521256.384733334</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4543225.198333334</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>4411767.536033334</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4592494.863333334</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4592200.418933334</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4585490.418933334</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4585630.418933334</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4596369.477433334</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4596229.477433334</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4554172.243033334</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4464117.736433334</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4464856.625233334</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4464267.736433334</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4469606.625233334</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4476045.514033333</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4475901.069633333</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4481031.069633333</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4481171.069633333</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4480891.069633333</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4480611.069633333</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4480471.069633333</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4476961.069633333</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4541418.215533333</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4541287.771133333</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4541147.771133333</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4541017.326733332</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4537630.051333332</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4514099.145533333</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4514249.145533333</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4511643.589933333</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4486434.266833333</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4498308.711233334</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4496298.822533334</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4496154.378133333</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4496414.378133333</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4497258.822533334</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4496984.378133333</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4496534.378133333</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4496389.933733333</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4499119.933733333</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4500119.933733333</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4497561.586133333</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4496021.586133333</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4495877.141733333</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4512597.141733333</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4530357.141733333</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4530086.741733332</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4530077.141733333</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4529797.141733333</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4528817.141733333</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4531747.141733333</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4531743.647233333</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4530903.647233333</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4529712.536033333</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4562606.980433334</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4550466.980433334</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4550326.980433334</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4550606.980433334</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4540426.980433334</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4540286.980433334</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4552357.655433333</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>4552077.655433333</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4563417.655433333</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>4551819.853233334</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4535555.408833333</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>4528372.439233333</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4548112.439233333</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4536252.439233333</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4536112.439233333</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4535412.439233333</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4534282.439233333</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4534146.163133333</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4155535.539033332</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4155675.539033332</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3486530.900033332</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2177066.236133332</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2678089.207124894</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3492819.575224893</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3492969.575224893</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3711961.287624893</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3711811.287624893</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3711661.287624893</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3711511.287624893</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3170529.204724893</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3169659.204724893</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3169809.204724893</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3146409.204724893</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3140021.959224893</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3138371.959224893</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
